--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1927,28 +1927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.092084813834</v>
+        <v>168.5936353088474</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.7342179337065</v>
+        <v>230.6772496557149</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.4851978362322</v>
+        <v>208.6617367061933</v>
       </c>
       <c r="AD2" t="n">
-        <v>132092.084813834</v>
+        <v>168593.6353088474</v>
       </c>
       <c r="AE2" t="n">
-        <v>180734.2179337065</v>
+        <v>230677.2496557149</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.508721981416354e-06</v>
+        <v>4.641792485234069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.0546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>163485.1978362322</v>
+        <v>208661.7367061933</v>
       </c>
     </row>
     <row r="3">
@@ -2033,28 +2033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.27124126899712</v>
+        <v>129.7727022554595</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.6178271409432</v>
+        <v>177.5607363934033</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.4381608313907</v>
+        <v>160.6145889201252</v>
       </c>
       <c r="AD3" t="n">
-        <v>93271.24126899711</v>
+        <v>129772.7022554595</v>
       </c>
       <c r="AE3" t="n">
-        <v>127617.8271409432</v>
+        <v>177560.7363934033</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.054609838387337e-06</v>
+        <v>5.651827941948118e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.973958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>115438.1608313907</v>
+        <v>160614.5889201252</v>
       </c>
     </row>
     <row r="4">
@@ -2139,28 +2139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.50229178934015</v>
+        <v>125.0037527758026</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.0927400716775</v>
+        <v>171.0356493241376</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.5358189139964</v>
+        <v>154.7122470027309</v>
       </c>
       <c r="AD4" t="n">
-        <v>88502.29178934015</v>
+        <v>125003.7527758026</v>
       </c>
       <c r="AE4" t="n">
-        <v>121092.7400716775</v>
+        <v>171035.6493241375</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.237373849166095e-06</v>
+        <v>5.989989212143996e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.694010416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>109535.8189139964</v>
+        <v>154712.2470027309</v>
       </c>
     </row>
     <row r="5">
@@ -2245,28 +2245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.60053182904373</v>
+        <v>124.1019928155061</v>
       </c>
       <c r="AB5" t="n">
-        <v>119.8589123111588</v>
+        <v>169.8018215636189</v>
       </c>
       <c r="AC5" t="n">
-        <v>108.4197459432531</v>
+        <v>153.5961740319876</v>
       </c>
       <c r="AD5" t="n">
-        <v>87600.53182904373</v>
+        <v>124101.9928155061</v>
       </c>
       <c r="AE5" t="n">
-        <v>119858.9123111588</v>
+        <v>169801.8215636189</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.268488079864445e-06</v>
+        <v>6.047558685090497e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.6484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>108419.7459432531</v>
+        <v>153596.1740319876</v>
       </c>
     </row>
   </sheetData>
@@ -2542,28 +2542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.0196813890135</v>
+        <v>140.1402255865725</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.6925612177396</v>
+        <v>191.7460391978739</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.9787448489337</v>
+        <v>173.4460663341393</v>
       </c>
       <c r="AD2" t="n">
-        <v>105019.6813890135</v>
+        <v>140140.2255865725</v>
       </c>
       <c r="AE2" t="n">
-        <v>143692.5612177396</v>
+        <v>191746.0391978739</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.93217754757816e-06</v>
+        <v>5.589182935678089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>129978.7448489337</v>
+        <v>173446.0663341393</v>
       </c>
     </row>
     <row r="3">
@@ -2648,28 +2648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.21013136788854</v>
+        <v>119.4159269114681</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.2200168262966</v>
+        <v>163.3901394590802</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.2235801327339</v>
+        <v>147.7964138686518</v>
       </c>
       <c r="AD3" t="n">
-        <v>84210.13136788853</v>
+        <v>119415.9269114681</v>
       </c>
       <c r="AE3" t="n">
-        <v>115220.0168262966</v>
+        <v>163390.1394590802</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.380939578671357e-06</v>
+        <v>6.444592625462393e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.6484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>104223.5801327339</v>
+        <v>147796.4138686518</v>
       </c>
     </row>
     <row r="4">
@@ -2754,28 +2754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.46560266984008</v>
+        <v>106.0783677898459</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.8330756984536</v>
+        <v>145.1411026573053</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.0644453160386</v>
+        <v>131.2890395265484</v>
       </c>
       <c r="AD4" t="n">
-        <v>82465.60266984008</v>
+        <v>106078.3677898459</v>
       </c>
       <c r="AE4" t="n">
-        <v>112833.0756984536</v>
+        <v>145141.1026573053</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.458135823675659e-06</v>
+        <v>6.591740582322249e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.544270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>102064.4453160386</v>
+        <v>131289.0395265484</v>
       </c>
     </row>
   </sheetData>
@@ -3051,28 +3051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.15252094819463</v>
+        <v>91.16474678514774</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.98577407207937</v>
+        <v>124.7356284561642</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.8250265115438</v>
+        <v>112.8310351438948</v>
       </c>
       <c r="AD2" t="n">
-        <v>70152.52094819464</v>
+        <v>91164.74678514774</v>
       </c>
       <c r="AE2" t="n">
-        <v>95985.77407207937</v>
+        <v>124735.6284561642</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.877609617429546e-06</v>
+        <v>8.258293703310102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.524739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>86825.02651154379</v>
+        <v>112831.0351438948</v>
       </c>
     </row>
   </sheetData>
@@ -3348,28 +3348,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.45190162740633</v>
+        <v>109.2819489114353</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.6048646264342</v>
+        <v>149.5243836798862</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.62152316036331</v>
+        <v>135.2539863603091</v>
       </c>
       <c r="AD2" t="n">
-        <v>76451.90162740633</v>
+        <v>109281.9489114353</v>
       </c>
       <c r="AE2" t="n">
-        <v>104604.8646264342</v>
+        <v>149524.3836798862</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.622693801635656e-06</v>
+        <v>7.355320897270259e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>94621.52316036331</v>
+        <v>135253.9863603091</v>
       </c>
     </row>
     <row r="3">
@@ -3454,28 +3454,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.60732143393507</v>
+        <v>96.46566218031491</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.0810286285933</v>
+        <v>131.9885747597104</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.33855852792945</v>
+        <v>119.3917704318069</v>
       </c>
       <c r="AD3" t="n">
-        <v>74607.32143393507</v>
+        <v>96465.6621803149</v>
       </c>
       <c r="AE3" t="n">
-        <v>102081.0286285933</v>
+        <v>131988.5747597104</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.751421186460004e-06</v>
+        <v>7.61668199359642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.47265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>92338.55852792945</v>
+        <v>119391.7704318069</v>
       </c>
     </row>
   </sheetData>
@@ -3751,28 +3751,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.88143616860373</v>
+        <v>96.93556020501217</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.51013156656974</v>
+        <v>132.6315099675387</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.77653304515488</v>
+        <v>119.9733448057655</v>
       </c>
       <c r="AD2" t="n">
-        <v>66881.43616860373</v>
+        <v>96935.56020501217</v>
       </c>
       <c r="AE2" t="n">
-        <v>91510.13156656973</v>
+        <v>132631.5099675387</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.926287213456834e-06</v>
+        <v>8.74307472608331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.641927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82776.53304515488</v>
+        <v>119973.3448057655</v>
       </c>
     </row>
   </sheetData>
@@ -4048,28 +4048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.4712733795592</v>
+        <v>144.1029643623343</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.4151816526936</v>
+        <v>197.1680332145648</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.2506450178166</v>
+        <v>178.3505928516952</v>
       </c>
       <c r="AD2" t="n">
-        <v>108471.2733795592</v>
+        <v>144102.9643623343</v>
       </c>
       <c r="AE2" t="n">
-        <v>148415.1816526936</v>
+        <v>197168.0332145648</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.822252061231857e-06</v>
+        <v>5.336211661073085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>134250.6450178166</v>
+        <v>178350.5928516952</v>
       </c>
     </row>
     <row r="3">
@@ -4154,28 +4154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.16413874659624</v>
+        <v>122.7104888747997</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.2618200434504</v>
+        <v>167.897904483124</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.8796393235503</v>
+        <v>151.8739641254902</v>
       </c>
       <c r="AD3" t="n">
-        <v>87164.13874659623</v>
+        <v>122710.4888747997</v>
       </c>
       <c r="AE3" t="n">
-        <v>119261.8200434504</v>
+        <v>167897.904483124</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.257435001587653e-06</v>
+        <v>6.159039753902278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.78515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>107879.6393235503</v>
+        <v>151873.9641254902</v>
       </c>
     </row>
     <row r="4">
@@ -4260,28 +4260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.46685883404264</v>
+        <v>107.3066603437976</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.2030385546193</v>
+        <v>146.8217067180643</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.3036608399672</v>
+        <v>132.8092490944918</v>
       </c>
       <c r="AD4" t="n">
-        <v>83466.85883404264</v>
+        <v>107306.6603437976</v>
       </c>
       <c r="AE4" t="n">
-        <v>114203.0385546193</v>
+        <v>146821.7067180643</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.416614420879787e-06</v>
+        <v>6.460010416692325e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>103303.6608399672</v>
+        <v>132809.2490944918</v>
       </c>
     </row>
   </sheetData>
@@ -4557,28 +4557,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.22822541481121</v>
+        <v>94.5416515146355</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.24813567872098</v>
+        <v>129.3560584855693</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.7304188701105</v>
+        <v>117.0104978161092</v>
       </c>
       <c r="AD2" t="n">
-        <v>65228.22541481121</v>
+        <v>94541.65151463551</v>
       </c>
       <c r="AE2" t="n">
-        <v>89248.13567872098</v>
+        <v>129356.0584855693</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.889993798976832e-06</v>
+        <v>8.918070434177508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>80730.4188701105</v>
+        <v>117010.4978161092</v>
       </c>
     </row>
   </sheetData>
@@ -4854,28 +4854,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.72638203950535</v>
+        <v>121.5170528813701</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.0817914069744</v>
+        <v>166.2649927062343</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.1897748236139</v>
+        <v>150.3968951567802</v>
       </c>
       <c r="AD2" t="n">
-        <v>98726.38203950535</v>
+        <v>121517.0528813701</v>
       </c>
       <c r="AE2" t="n">
-        <v>135081.7914069744</v>
+        <v>166264.9927062343</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.137357714490016e-06</v>
+        <v>6.149177762323314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.162760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>122189.7748236139</v>
+        <v>150396.8951567802</v>
       </c>
     </row>
     <row r="3">
@@ -4960,28 +4960,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.68401922260099</v>
+        <v>101.3893492098941</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.6589463942563</v>
+        <v>138.7253805713186</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.38412765069617</v>
+        <v>125.4856249519237</v>
       </c>
       <c r="AD3" t="n">
-        <v>78684.019222601</v>
+        <v>101389.3492098941</v>
       </c>
       <c r="AE3" t="n">
-        <v>107658.9463942563</v>
+        <v>138725.3805713186</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.598179208332585e-06</v>
+        <v>7.052381521732034e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>97384.12765069617</v>
+        <v>125485.6249519237</v>
       </c>
     </row>
   </sheetData>
@@ -5257,28 +5257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.057799947176</v>
+        <v>125.3496439877358</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.6399843600324</v>
+        <v>171.5089129399477</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.3129402386975</v>
+        <v>155.140343003278</v>
       </c>
       <c r="AD2" t="n">
-        <v>102057.799947176</v>
+        <v>125349.6439877358</v>
       </c>
       <c r="AE2" t="n">
-        <v>139639.9843600324</v>
+        <v>171508.9129399477</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.034959823973527e-06</v>
+        <v>5.835326604986996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.227864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>126312.9402386975</v>
+        <v>155140.343003278</v>
       </c>
     </row>
     <row r="3">
@@ -5363,28 +5363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.73227139895845</v>
+        <v>105.1093667855389</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.8296995013414</v>
+        <v>143.815272733906</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.1568299349312</v>
+        <v>130.0897449502239</v>
       </c>
       <c r="AD3" t="n">
-        <v>81732.27139895844</v>
+        <v>105109.3667855389</v>
       </c>
       <c r="AE3" t="n">
-        <v>111829.6995013414</v>
+        <v>143815.272733906</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.477697784753493e-06</v>
+        <v>6.6865802463596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.563802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>101156.8299349312</v>
+        <v>130089.7449502239</v>
       </c>
     </row>
     <row r="4">
@@ -5469,28 +5469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.42356299233474</v>
+        <v>104.8006583789152</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.4073110401454</v>
+        <v>143.3928842727099</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.7747536356456</v>
+        <v>129.7076686509384</v>
       </c>
       <c r="AD4" t="n">
-        <v>81423.56299233474</v>
+        <v>104800.6583789152</v>
       </c>
       <c r="AE4" t="n">
-        <v>111407.3110401454</v>
+        <v>143392.88427271</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.495711513378522e-06</v>
+        <v>6.721215297891526e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.537760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>100774.7536356456</v>
+        <v>129707.6686509384</v>
       </c>
     </row>
   </sheetData>
@@ -5766,28 +5766,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.2306851114904</v>
+        <v>152.5092514295985</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.0319511054023</v>
+        <v>208.6698860392014</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.8541648946916</v>
+        <v>188.754724985704</v>
       </c>
       <c r="AD2" t="n">
-        <v>116230.6851114904</v>
+        <v>152509.2514295985</v>
       </c>
       <c r="AE2" t="n">
-        <v>159031.9511054023</v>
+        <v>208669.8860392014</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.59827880603677e-06</v>
+        <v>4.840396345489898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.8984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>143854.1648946916</v>
+        <v>188754.724985704</v>
       </c>
     </row>
     <row r="3">
@@ -5872,28 +5872,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.62448820668607</v>
+        <v>126.8177136702226</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.996422834587</v>
+        <v>173.5175906461885</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.162378269359</v>
+        <v>156.9573153284327</v>
       </c>
       <c r="AD3" t="n">
-        <v>90624.48820668607</v>
+        <v>126817.7136702226</v>
       </c>
       <c r="AE3" t="n">
-        <v>123996.4228345869</v>
+        <v>173517.5906461885</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.148506982016558e-06</v>
+        <v>5.865429704500579e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.86328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>112162.378269359</v>
+        <v>156957.3153284327</v>
       </c>
     </row>
     <row r="4">
@@ -5978,28 +5978,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.43470728373489</v>
+        <v>122.6279327472714</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.2637797357191</v>
+        <v>167.7849475473206</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.9768505820302</v>
+        <v>151.7717876411037</v>
       </c>
       <c r="AD4" t="n">
-        <v>86434.7072837349</v>
+        <v>122627.9327472714</v>
       </c>
       <c r="AE4" t="n">
-        <v>118263.7797357191</v>
+        <v>167784.9475473206</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.300263235119681e-06</v>
+        <v>6.148140093862545e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.641927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>106976.8505820302</v>
+        <v>151771.7876411037</v>
       </c>
     </row>
     <row r="5">
@@ -6084,28 +6084,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.10961716667677</v>
+        <v>110.3806688999872</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.8189770955966</v>
+        <v>151.027700840327</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.5744992815964</v>
+        <v>136.6138290408768</v>
       </c>
       <c r="AD5" t="n">
-        <v>86109.61716667678</v>
+        <v>110380.6688999872</v>
       </c>
       <c r="AE5" t="n">
-        <v>117818.9770955966</v>
+        <v>151027.700840327</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.325132438147589e-06</v>
+        <v>6.194469532863413e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>106574.4992815964</v>
+        <v>136613.8290408768</v>
       </c>
     </row>
   </sheetData>
@@ -6381,28 +6381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.88216521362824</v>
+        <v>113.1582748263833</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.2983025976495</v>
+        <v>154.8281438081454</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.86702599888892</v>
+        <v>140.051563065803</v>
       </c>
       <c r="AD2" t="n">
-        <v>79882.16521362824</v>
+        <v>113158.2748263833</v>
       </c>
       <c r="AE2" t="n">
-        <v>109298.3025976495</v>
+        <v>154828.1438081454</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.456703288738702e-06</v>
+        <v>6.928952599173331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>98867.02599888892</v>
+        <v>140051.563065803</v>
       </c>
     </row>
     <row r="3">
@@ -6487,28 +6487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.27445933347387</v>
+        <v>98.60076716626328</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.3620802516744</v>
+        <v>134.9099195956676</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.4019097855805</v>
+        <v>122.0343062167546</v>
       </c>
       <c r="AD3" t="n">
-        <v>76274.45933347387</v>
+        <v>98600.76716626328</v>
       </c>
       <c r="AE3" t="n">
-        <v>104362.0802516744</v>
+        <v>134909.9195956676</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.674766049315599e-06</v>
+        <v>7.366058825965948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.51171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>94401.9097855805</v>
+        <v>122034.3062167546</v>
       </c>
     </row>
   </sheetData>
@@ -6784,28 +6784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.62063127651561</v>
+        <v>92.82587794423884</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.99450739174364</v>
+        <v>127.0084613919661</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.64204914245487</v>
+        <v>114.8869520942455</v>
       </c>
       <c r="AD2" t="n">
-        <v>71620.6312765156</v>
+        <v>92825.87794423883</v>
       </c>
       <c r="AE2" t="n">
-        <v>97994.50739174364</v>
+        <v>127008.4613919661</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.838971116335531e-06</v>
+        <v>8.031367656630724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>88642.04914245487</v>
+        <v>114886.9520942455</v>
       </c>
     </row>
   </sheetData>
@@ -11342,28 +11342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.48537484933202</v>
+        <v>89.10148610969134</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.70471123032162</v>
+        <v>121.9125841753693</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.76166510591088</v>
+        <v>110.2774182470905</v>
       </c>
       <c r="AD2" t="n">
-        <v>68485.37484933202</v>
+        <v>89101.48610969134</v>
       </c>
       <c r="AE2" t="n">
-        <v>93704.71123032163</v>
+        <v>121912.5841753693</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.918741762556489e-06</v>
+        <v>8.518779391112322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>84761.66510591088</v>
+        <v>110277.4182470905</v>
       </c>
     </row>
   </sheetData>
@@ -11639,28 +11639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.85499172952535</v>
+        <v>91.87983592015728</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.6834138196906</v>
+        <v>125.7140449581898</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.16976871131419</v>
+        <v>113.7160729481836</v>
       </c>
       <c r="AD2" t="n">
-        <v>72854.99172952535</v>
+        <v>91879.83592015727</v>
       </c>
       <c r="AE2" t="n">
-        <v>99683.4138196906</v>
+        <v>125714.0449581898</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.803285780569274e-06</v>
+        <v>9.046217779067891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.0390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>90169.76871131419</v>
+        <v>113716.0729481836</v>
       </c>
     </row>
   </sheetData>
@@ -11936,28 +11936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.58258187204044</v>
+        <v>122.6291839828983</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.2532817907191</v>
+        <v>167.786659543106</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.2494598093314</v>
+        <v>151.7733362464142</v>
       </c>
       <c r="AD2" t="n">
-        <v>99582.58187204043</v>
+        <v>122629.1839828983</v>
       </c>
       <c r="AE2" t="n">
-        <v>136253.2817907191</v>
+        <v>167786.659543106</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.124368050269301e-06</v>
+        <v>6.063080511470933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123249.4598093314</v>
+        <v>151773.3362464142</v>
       </c>
     </row>
     <row r="3">
@@ -12042,28 +12042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.97927432305686</v>
+        <v>103.1111277799353</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.4311715653213</v>
+        <v>141.0811939703574</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.98721413876891</v>
+        <v>127.6166028265639</v>
       </c>
       <c r="AD3" t="n">
-        <v>79979.27432305686</v>
+        <v>103111.1277799353</v>
       </c>
       <c r="AE3" t="n">
-        <v>109431.1715653213</v>
+        <v>141081.1939703574</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.540899577379542e-06</v>
+        <v>6.871392510506273e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.524739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>98987.2141387689</v>
+        <v>127616.6028265639</v>
       </c>
     </row>
     <row r="4">
@@ -12148,28 +12148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.1265831221673</v>
+        <v>103.2584365790458</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.6327259630696</v>
+        <v>141.2827483681057</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.16953246767959</v>
+        <v>127.7989211554746</v>
       </c>
       <c r="AD4" t="n">
-        <v>80126.5831221673</v>
+        <v>103258.4365790458</v>
       </c>
       <c r="AE4" t="n">
-        <v>109632.7259630696</v>
+        <v>141282.7483681057</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.539644000342918e-06</v>
+        <v>6.868955965086873e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH4" t="n">
-        <v>99169.53246767959</v>
+        <v>127798.9211554746</v>
       </c>
     </row>
   </sheetData>
@@ -12445,28 +12445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.1701608828332</v>
+        <v>148.1306529952062</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.4761627180703</v>
+        <v>202.6788944911391</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.8286131534469</v>
+        <v>183.3355052625775</v>
       </c>
       <c r="AD2" t="n">
-        <v>112170.1608828332</v>
+        <v>148130.6529952062</v>
       </c>
       <c r="AE2" t="n">
-        <v>153476.1627180703</v>
+        <v>202678.8944911392</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.713884520585691e-06</v>
+        <v>5.09231182549335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.690104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>138828.6131534469</v>
+        <v>183335.5052625775</v>
       </c>
     </row>
     <row r="3">
@@ -12551,28 +12551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.49859459528307</v>
+        <v>124.3737458530844</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.0876814076599</v>
+        <v>170.1736460585311</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.5312430417727</v>
+        <v>153.9325121189645</v>
       </c>
       <c r="AD3" t="n">
-        <v>88498.59459528307</v>
+        <v>124373.7458530844</v>
       </c>
       <c r="AE3" t="n">
-        <v>121087.6814076599</v>
+        <v>170173.6460585311</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.223709061408161e-06</v>
+        <v>6.048942632170671e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>109531.2430417727</v>
+        <v>153932.5121189645</v>
       </c>
     </row>
     <row r="4">
@@ -12657,28 +12657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.94864266065137</v>
+        <v>109.0076449234716</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.2304805578731</v>
+        <v>149.1490688621166</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.1376066239638</v>
+        <v>134.9144910619897</v>
       </c>
       <c r="AD4" t="n">
-        <v>84948.64266065137</v>
+        <v>109007.6449234716</v>
       </c>
       <c r="AE4" t="n">
-        <v>116230.480557873</v>
+        <v>149149.0688621166</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.362422141454182e-06</v>
+        <v>6.309222777663564e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.596354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>105137.6066239638</v>
+        <v>134914.4910619897</v>
       </c>
     </row>
   </sheetData>
@@ -12954,28 +12954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.53927867880466</v>
+        <v>98.01985756850446</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.51495306164658</v>
+        <v>134.1150934560917</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.30370140105428</v>
+        <v>121.315337168394</v>
       </c>
       <c r="AD2" t="n">
-        <v>70539.27867880467</v>
+        <v>98019.85756850446</v>
       </c>
       <c r="AE2" t="n">
-        <v>96514.95306164658</v>
+        <v>134115.0934560917</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.501967218452369e-06</v>
+        <v>8.758154250697256e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.6640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>87303.70140105428</v>
+        <v>121315.337168394</v>
       </c>
     </row>
   </sheetData>
@@ -13251,28 +13251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.56682682865188</v>
+        <v>95.28006163190906</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.6573780062632</v>
+        <v>130.3663837843777</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.05077912288793</v>
+        <v>117.9243990864001</v>
       </c>
       <c r="AD2" t="n">
-        <v>73566.82682865189</v>
+        <v>95280.06163190906</v>
       </c>
       <c r="AE2" t="n">
-        <v>100657.3780062632</v>
+        <v>130366.3837843777</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.761981941678284e-06</v>
+        <v>7.746987182241112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.524739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>91050.77912288794</v>
+        <v>117924.3990864001</v>
       </c>
     </row>
     <row r="3">
@@ -13357,28 +13357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.0818005006256</v>
+        <v>94.62444310329057</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.99374358640661</v>
+        <v>129.4693375896742</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.45048104064544</v>
+        <v>117.1129657215066</v>
       </c>
       <c r="AD3" t="n">
-        <v>73081.8005006256</v>
+        <v>94624.44310329057</v>
       </c>
       <c r="AE3" t="n">
-        <v>99993.74358640661</v>
+        <v>129469.3375896742</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.808123917529626e-06</v>
+        <v>7.842006589836716e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.466145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>90450.48104064545</v>
+        <v>117112.9657215066</v>
       </c>
     </row>
   </sheetData>
@@ -13654,28 +13654,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.18875322450957</v>
+        <v>116.8873343562582</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.8225221905028</v>
+        <v>159.9304075714132</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.9594604235837</v>
+        <v>144.6668739365783</v>
       </c>
       <c r="AD2" t="n">
-        <v>83188.75322450956</v>
+        <v>116887.3343562582</v>
       </c>
       <c r="AE2" t="n">
-        <v>113822.5221905028</v>
+        <v>159930.4075714132</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.303788758703015e-06</v>
+        <v>6.545413797429123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.954427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>102959.4604235837</v>
+        <v>144666.8739365783</v>
       </c>
     </row>
     <row r="3">
@@ -13760,28 +13760,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.18208888900334</v>
+        <v>99.61945220052958</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.6039390513392</v>
+        <v>136.303729400762</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.52524732436548</v>
+        <v>123.2950927702755</v>
       </c>
       <c r="AD3" t="n">
-        <v>77182.08888900334</v>
+        <v>99619.45220052957</v>
       </c>
       <c r="AE3" t="n">
-        <v>105603.9390513392</v>
+        <v>136303.729400762</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.661803603403255e-06</v>
+        <v>7.254707119531634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.47265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>95525.24732436548</v>
+        <v>123295.0927702755</v>
       </c>
     </row>
   </sheetData>
